--- a/biology/Zoologie/Goniopora/Goniopora.xlsx
+++ b/biology/Zoologie/Goniopora/Goniopora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniopora est un genre de scléractiniaires (coraux durs), de la famille des Poritidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces coraux possèdent des polypes très charnus, qu'ils gardent étendus pendant la journée. Ceux-ci peuvent se rétracter en cas de menace dans le squelette dur. 
 Attention toutefois, cette caractéristique est partagée par certains autres genres, comme Alveopora. On les distingue par le fait que les Goniopora ont 24 tentacules, contre 12 chez Alveopora.
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (29 janvier 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (29 janvier 2014) :
 Goniopora albiconus Veron, 2002
 Goniopora burgosi Nemenzo, 1955
 Goniopora cellulosa Veron, 1990
@@ -611,7 +627,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce corail figure sur une émission d'Israël de 1986 (valeur faciale : 40 s).
 </t>
